--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\LGCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:BE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1040,24 +1040,23 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>1282234526</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Direction</t>
   </si>
@@ -108,6 +108,15 @@
     <t>- update errors
 - update code
 - update company (name and date and all)</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ouargla</t>
+  </si>
+  <si>
+    <t>License</t>
   </si>
 </sst>
 </file>
@@ -202,9 +211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +218,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE28"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -506,14 +515,15 @@
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="57" width="9.140625" style="10"/>
-    <col min="58" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="9" customWidth="1"/>
+    <col min="10" max="56" width="9.140625" style="9"/>
+    <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -529,66 +539,67 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-    </row>
-    <row r="2" spans="1:57" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+    </row>
+    <row r="2" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -604,66 +615,65 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-    </row>
-    <row r="3" spans="1:57" s="3" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+    </row>
+    <row r="3" spans="1:56" s="3" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -679,66 +689,67 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-    </row>
-    <row r="4" spans="1:57" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+    </row>
+    <row r="4" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -754,66 +765,67 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-    </row>
-    <row r="5" spans="1:57" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I4" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+    </row>
+    <row r="5" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -829,66 +841,67 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-    </row>
-    <row r="6" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+    </row>
+    <row r="6" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -904,64 +917,67 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-    </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+    </row>
+    <row r="7" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -977,66 +993,67 @@
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-    </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+    </row>
+    <row r="8" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1052,63 +1069,65 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1124,285 +1143,326 @@
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1590730343</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-    </row>
-    <row r="11" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+    </row>
+    <row r="11" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Direction</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>License</t>
+  </si>
+  <si>
+    <t>DCA</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1232,30 @@
       <c r="BD10" s="9"/>
     </row>
     <row r="11" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1344147740</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45597</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Direction</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>functional</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>DAL</t>
@@ -120,6 +117,15 @@
   </si>
   <si>
     <t>DCA</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>192,168,1,250</t>
+  </si>
+  <si>
+    <t>10,7,0,253</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,9 +215,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -521,14 +524,15 @@
     <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="9" customWidth="1"/>
-    <col min="10" max="56" width="9.140625" style="9"/>
+    <col min="9" max="9" width="14.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="8" customWidth="1"/>
+    <col min="11" max="56" width="9.140625" style="8"/>
     <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -552,55 +556,57 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
     </row>
     <row r="2" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -625,56 +631,58 @@
         <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
     </row>
     <row r="3" spans="1:56" s="3" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -698,59 +706,61 @@
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10">
         <v>45596</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
+      <c r="J3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
     </row>
     <row r="4" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -774,66 +784,68 @@
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10">
         <v>45596</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
+      <c r="J4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
     </row>
     <row r="5" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -850,59 +862,61 @@
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10">
         <v>45596</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
+      <c r="J5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
     </row>
     <row r="6" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -926,59 +940,61 @@
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10">
         <v>45596</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
     </row>
     <row r="7" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1003,65 +1019,67 @@
         <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10">
         <v>45596</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
     </row>
     <row r="8" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -1078,92 +1096,99 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
         <v>45596</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
+      <c r="J8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>1196674438</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="10">
+        <v>45596</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="3">
         <v>1590730343</v>
@@ -1177,66 +1202,68 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="10">
         <v>45596</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9"/>
+      <c r="J10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
     </row>
     <row r="11" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -1253,56 +1280,58 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>45597</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1493,6 +1522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="B9:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Direction</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -712,9 +712,7 @@
       <c r="I3" s="10">
         <v>45596</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -790,9 +788,7 @@
       <c r="I4" s="10">
         <v>45596</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1024,9 +1020,7 @@
       <c r="I7" s="10">
         <v>45596</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1283,9 +1277,7 @@
       <c r="I11" s="10">
         <v>45597</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Direction</t>
   </si>
@@ -100,11 +100,6 @@
   <si>
     <t>- update errors
 - update code</t>
-  </si>
-  <si>
-    <t>- update errors
-- update code
-- update company (name and date and all)</t>
   </si>
   <si>
     <t>DE</t>
@@ -511,7 +506,7 @@
   <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -556,10 +551,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -635,7 +630,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -684,7 +679,7 @@
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
     </row>
-    <row r="3" spans="1:56" s="3" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -706,9 +701,7 @@
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="10">
         <v>45596</v>
       </c>
@@ -865,7 +858,7 @@
         <v>45596</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -943,7 +936,7 @@
         <v>45596</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1095,7 +1088,7 @@
         <v>45596</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1171,7 +1164,7 @@
         <v>45596</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -1179,10 +1172,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>1590730343</v>
@@ -1203,7 +1196,7 @@
         <v>45596</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1257,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>Direction</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>10,7,0,253</t>
+  </si>
+  <si>
+    <t>last update</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>fixed error in ajouter_eng (avenant)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +231,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -519,13 +531,14 @@
     <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="8" customWidth="1"/>
-    <col min="11" max="56" width="9.140625" style="8"/>
-    <col min="57" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="8" customWidth="1"/>
+    <col min="13" max="58" width="9.140625" style="8"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -553,11 +566,15 @@
       <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -602,8 +619,10 @@
       <c r="BB1" s="8"/>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
-    </row>
-    <row r="2" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+    </row>
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -629,11 +648,11 @@
         <v>24</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -678,8 +697,10 @@
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
-    </row>
-    <row r="3" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+    </row>
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -705,9 +726,8 @@
       <c r="I3" s="10">
         <v>45596</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -752,8 +772,10 @@
       <c r="BB3" s="8"/>
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
-    </row>
-    <row r="4" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+    </row>
+    <row r="4" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -781,9 +803,8 @@
       <c r="I4" s="10">
         <v>45596</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -828,8 +849,10 @@
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
-    </row>
-    <row r="5" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -857,11 +880,11 @@
       <c r="I5" s="10">
         <v>45596</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -906,8 +929,10 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-    </row>
-    <row r="6" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -935,11 +960,11 @@
       <c r="I6" s="10">
         <v>45596</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -984,8 +1009,10 @@
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-    </row>
-    <row r="7" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1013,9 +1040,12 @@
       <c r="I7" s="10">
         <v>45596</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="10">
+        <v>45377</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1060,8 +1090,10 @@
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
-    </row>
-    <row r="8" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+    </row>
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1087,11 +1119,11 @@
       <c r="I8" s="10">
         <v>45596</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1136,8 +1168,10 @@
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
       <c r="BD8" s="8"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1163,11 +1197,13 @@
       <c r="I9" s="10">
         <v>45596</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:56" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1195,11 +1231,11 @@
       <c r="I10" s="10">
         <v>45596</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1244,8 +1280,10 @@
       <c r="BB10" s="8"/>
       <c r="BC10" s="8"/>
       <c r="BD10" s="8"/>
-    </row>
-    <row r="11" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+    </row>
+    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1268,11 +1306,13 @@
         <v>19</v>
       </c>
       <c r="I11" s="10">
-        <v>45597</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+        <v>45566</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1317,19 +1357,42 @@
       <c r="BB11" s="8"/>
       <c r="BC11" s="8"/>
       <c r="BD11" s="8"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1565013331</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="10">
+        <v>45566</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1339,8 +1402,11 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1350,8 +1416,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1361,8 +1430,11 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1372,8 +1444,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1383,8 +1458,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1394,8 +1472,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1405,8 +1486,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1416,8 +1500,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1427,8 +1514,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1438,8 +1528,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1449,8 +1542,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1460,8 +1556,11 @@
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1471,8 +1570,11 @@
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1482,8 +1584,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1493,8 +1598,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1504,6 +1612,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Direction</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>fixed error in ajouter_eng (avenant)</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>45,1,16,189:8089</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="8" customWidth="1"/>
     <col min="13" max="58" width="9.140625" style="8"/>
     <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -651,7 +657,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1306,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="10">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1384,7 +1390,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="10">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1393,15 +1399,31 @@
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1941782289</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="10">
+        <v>45596</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>234009317</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>Direction</t>
   </si>
@@ -136,6 +137,18 @@
   </si>
   <si>
     <t>45,1,16,189:8089</t>
+  </si>
+  <si>
+    <t>specific changes</t>
+  </si>
+  <si>
+    <t>172,168,1,5</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>242424a+A</t>
   </si>
 </sst>
 </file>
@@ -524,7 +537,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -966,8 +979,12 @@
       <c r="I6" s="10">
         <v>45596</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="10">
+        <v>45417</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1116,7 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1125,8 +1142,12 @@
       <c r="I8" s="10">
         <v>45596</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10">
+        <v>45417</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1642,4 +1663,715 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BF26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="8" customWidth="1"/>
+    <col min="15" max="58" width="9.140625" style="8"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+    </row>
+    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1967046649</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10">
+        <v>45778</v>
+      </c>
+      <c r="J2" s="10">
+        <v>45419</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+    </row>
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+    </row>
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="4"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+    </row>
+    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>Direction</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>242424a+A</t>
+  </si>
+  <si>
+    <t>specific changes (fiche eng)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +255,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,7 +563,7 @@
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="14" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" style="8" customWidth="1"/>
     <col min="13" max="58" width="9.140625" style="8"/>
     <col min="59" max="16384" width="9.140625" style="1"/>
@@ -588,7 +600,7 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -668,7 +680,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5" t="s">
         <v>36</v>
       </c>
@@ -746,7 +758,7 @@
         <v>45596</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="11"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -823,7 +835,7 @@
         <v>45596</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="11"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -900,7 +912,7 @@
         <v>45596</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
@@ -982,7 +994,7 @@
       <c r="J6" s="10">
         <v>45417</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1145,7 +1157,7 @@
       <c r="J8" s="10">
         <v>45417</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1224,8 +1236,8 @@
       <c r="I9" s="10">
         <v>45596</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>45596</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>45596</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1414,12 +1426,12 @@
         <v>45596</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1445,8 +1457,12 @@
       <c r="I13" s="10">
         <v>45596</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="10">
+        <v>45421</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
@@ -1460,7 +1476,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
@@ -1474,7 +1490,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
@@ -1488,7 +1504,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1502,7 +1518,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1516,7 +1532,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1530,7 +1546,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,7 +1560,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1558,7 +1574,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1572,7 +1588,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1586,7 +1602,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,7 +1616,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1614,7 +1630,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1628,7 +1644,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1642,7 +1658,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1656,7 +1672,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="3"/>
     </row>
   </sheetData>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1155,7 @@
         <v>45596</v>
       </c>
       <c r="J8" s="10">
-        <v>45417</v>
+        <v>45425</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>37</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +270,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,7 +567,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -654,7 +672,7 @@
       <c r="BF1" s="8"/>
     </row>
     <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -964,40 +982,40 @@
       <c r="BF5" s="8"/>
     </row>
     <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <v>1073231461</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="17">
         <v>45596</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="17">
         <v>45417</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="8"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -130,9 +130,6 @@
     <t>update</t>
   </si>
   <si>
-    <t>fixed error in ajouter_eng (avenant)</t>
-  </si>
-  <si>
     <t>DRE</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>specific changes (fiche eng)</t>
+  </si>
+  <si>
+    <t>numberWithcommas</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +283,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +570,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -700,7 +703,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="13"/>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1013,7 +1016,7 @@
         <v>45417</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>30</v>
@@ -1065,7 +1068,7 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
     </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1093,11 +1096,11 @@
       <c r="I7" s="10">
         <v>45596</v>
       </c>
-      <c r="J7" s="10">
-        <v>45377</v>
+      <c r="J7" s="19">
+        <v>45428</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1176,7 +1179,7 @@
         <v>45425</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -1454,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1479,7 +1482,7 @@
         <v>45421</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1841,13 +1844,13 @@
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,20 +266,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +564,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A6" sqref="A6:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -985,40 +979,40 @@
       <c r="BF5" s="8"/>
     </row>
     <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>1073231461</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>45596</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>45417</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="8"/>
@@ -1069,39 +1063,40 @@
       <c r="BF6" s="8"/>
     </row>
     <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="16">
         <v>1700115743</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="15">
         <v>45596</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>45428</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1150,38 +1145,38 @@
       <c r="BF7" s="8"/>
     </row>
     <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="16">
         <v>1282234526</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <v>45596</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="15">
         <v>45425</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="8"/>
@@ -1232,68 +1227,68 @@
       <c r="BF8" s="8"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="16">
         <v>1196674438</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="10">
+      <c r="H9" s="18"/>
+      <c r="I9" s="15">
         <v>45596</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="16">
         <v>1590730343</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="15">
         <v>45596</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="8"/>
@@ -1344,33 +1339,34 @@
       <c r="BF10" s="8"/>
     </row>
     <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="16">
         <v>1344147740</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="10">
+      <c r="H11" s="16"/>
+      <c r="I11" s="15">
         <v>45596</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="8"/>
@@ -1421,70 +1417,70 @@
       <c r="BF11" s="8"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="16">
         <v>1565013331</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="10">
+      <c r="H12" s="16"/>
+      <c r="I12" s="15">
         <v>45596</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="3" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="16">
         <v>1941782289</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10">
+      <c r="H13" s="18"/>
+      <c r="I13" s="15">
         <v>45596</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="15">
         <v>45421</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>Direction</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>numberWithcommas</t>
+  </si>
+  <si>
+    <t>Medea</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -1706,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -145,9 +145,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>242424a+A</t>
-  </si>
-  <si>
     <t>specific changes (fiche eng)</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Medea</t>
+  </si>
+  <si>
+    <t>4514+4514Dd</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
         <v>45428</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1485,7 +1485,7 @@
         <v>45421</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>
@@ -1853,7 +1853,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>Direction</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>4514+4514Dd</t>
+  </si>
+  <si>
+    <t>medea fiche eng</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1843,9 +1846,11 @@
         <v>45778</v>
       </c>
       <c r="J2" s="10">
-        <v>45419</v>
-      </c>
-      <c r="K2" s="10"/>
+        <v>45462</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Direction</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>medea fiche eng</t>
+  </si>
+  <si>
+    <t>insc</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1182,10 +1185,10 @@
         <v>45596</v>
       </c>
       <c r="J8" s="10">
-        <v>45425</v>
+        <v>45466</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -1263,8 +1266,12 @@
       <c r="I9" s="10">
         <v>45596</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="10">
+        <v>45466</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -145,9 +145,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>specific changes (fiche eng)</t>
-  </si>
-  <si>
     <t>numberWithcommas</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>insc</t>
+  </si>
+  <si>
+    <t>scroll to</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>45428</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1188,7 +1188,7 @@
         <v>45466</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -1270,7 +1270,7 @@
         <v>45466</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>31</v>
@@ -1465,7 +1465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>45596</v>
       </c>
       <c r="J13" s="10">
-        <v>45421</v>
+        <v>45468</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>
@@ -1856,7 +1856,7 @@
         <v>45462</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -1865,7 +1865,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\LGCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68CF0D-50B2-EF4A-AED3-1BC1B106F437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>Direction</t>
   </si>
@@ -161,12 +162,15 @@
   </si>
   <si>
     <t>scroll to</t>
+  </si>
+  <si>
+    <t>Touggourt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,10 +264,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,7 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,9 +293,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,31 +573,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="8" customWidth="1"/>
-    <col min="13" max="58" width="9.140625" style="8"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="13" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -630,60 +627,60 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-    </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+    </row>
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -710,58 +707,58 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-    </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -784,59 +781,59 @@
         <v>19</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>45596</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-    </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+    </row>
+    <row r="4" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -858,62 +855,62 @@
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>45596</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-    </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -935,149 +932,149 @@
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>45596</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-    </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>1073231461</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>45596</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>45417</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-    </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1102,63 +1099,63 @@
       <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>45596</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="9">
         <v>45428</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-    </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+    </row>
+    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1180,67 +1177,67 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9">
         <v>45596</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>45466</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+    </row>
+    <row r="9" spans="1:58" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1263,20 +1260,20 @@
         <v>19</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>45596</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>45466</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1298,65 +1295,65 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>45596</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-    </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+    </row>
+    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1378,62 +1375,62 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>45596</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1456,16 +1453,16 @@
         <v>19</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>45596</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1488,32 +1485,50 @@
         <v>19</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>45596</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>45468</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1829370083</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
+      <c r="I14" s="9">
+        <v>45961</v>
+      </c>
+      <c r="J14" s="9">
+        <v>45475</v>
+      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1524,10 +1539,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1538,10 +1553,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1552,10 +1567,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1566,10 +1581,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1580,10 +1595,10 @@
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1594,10 +1609,10 @@
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1608,10 +1623,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1622,10 +1637,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1636,10 +1651,10 @@
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1650,10 +1665,10 @@
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1664,10 +1679,10 @@
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1678,10 +1693,10 @@
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1692,10 +1707,10 @@
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1706,7 +1721,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
   </sheetData>
@@ -1716,33 +1731,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="8" customWidth="1"/>
-    <col min="15" max="58" width="9.140625" style="8"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1779,54 +1793,54 @@
       <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-    </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+    </row>
+    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1849,13 +1863,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>45778</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>45462</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1867,248 +1881,248 @@
       <c r="N2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-    </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H3" s="4"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-    </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+    </row>
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-    </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H5" s="4"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-    </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="4"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2122,105 +2136,105 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H8" s="4"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-    </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+    </row>
+    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H9" s="4"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2234,7 +2248,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2248,7 +2262,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2262,7 +2276,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2276,7 +2290,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2290,7 +2304,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2304,7 +2318,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2318,7 +2332,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2332,96 +2346,6 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68CF0D-50B2-EF4A-AED3-1BC1B106F437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE809CD8-2856-C649-ACC2-3E816EF0B474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>Direction</t>
   </si>
@@ -152,19 +152,28 @@
     <t>Medea</t>
   </si>
   <si>
-    <t>4514+4514Dd</t>
-  </si>
-  <si>
     <t>medea fiche eng</t>
   </si>
   <si>
     <t>insc</t>
   </si>
   <si>
-    <t>scroll to</t>
-  </si>
-  <si>
     <t>Touggourt</t>
+  </si>
+  <si>
+    <t>DFEP</t>
+  </si>
+  <si>
+    <t>Tamenrasset</t>
+  </si>
+  <si>
+    <t>101 126 800</t>
+  </si>
+  <si>
+    <t>attestation payment</t>
+  </si>
+  <si>
+    <t>4514+4514Aa</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +302,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1197,7 @@
         <v>45466</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -1267,7 +1279,7 @@
         <v>45466</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>31</v>
@@ -1489,10 +1501,10 @@
         <v>45596</v>
       </c>
       <c r="J13" s="9">
-        <v>45468</v>
+        <v>45481</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1504,7 +1516,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3">
         <v>1829370083</v>
@@ -1519,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="9">
+      <c r="I14" s="18">
         <v>45961</v>
       </c>
       <c r="J14" s="9">
@@ -1529,16 +1541,34 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="18">
+        <v>45961</v>
+      </c>
+      <c r="J15" s="9">
+        <v>45475</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="3"/>
     </row>
@@ -1734,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1900,7 @@
         <v>45462</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -1879,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE809CD8-2856-C649-ACC2-3E816EF0B474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2DB76B-4FEA-864C-A7B5-B83E9A8F079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>Direction</t>
   </si>
@@ -174,6 +175,15 @@
   </si>
   <si>
     <t>4514+4514Aa</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>192.168.1.250</t>
   </si>
 </sst>
 </file>
@@ -250,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +315,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2380,4 +2393,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645D91C-5358-9D44-A618-C9DA942F1443}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1058922238</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <v>45487</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2DB76B-4FEA-864C-A7B5-B83E9A8F079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31AB32-4045-C74C-8E57-3643E730B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31AB32-4045-C74C-8E57-3643E730B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5892970-A90D-1149-9BD4-7CCB4D7FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>Medea</t>
   </si>
   <si>
-    <t>medea fiche eng</t>
-  </si>
-  <si>
     <t>insc</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>192.168.1.250</t>
+  </si>
+  <si>
+    <t>specific payment changes</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1210,7 @@
         <v>45466</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -1292,7 +1292,7 @@
         <v>45466</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>31</v>
@@ -1517,7 +1517,7 @@
         <v>45481</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1529,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>1829370083</v>
@@ -1558,13 +1558,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1883,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1910,10 +1910,10 @@
         <v>45778</v>
       </c>
       <c r="J2" s="9">
-        <v>45462</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>41</v>
+        <v>45492</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -1922,7 +1922,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2399,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645D91C-5358-9D44-A618-C9DA942F1443}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -2479,10 +2479,10 @@
         <v>45487</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5892970-A90D-1149-9BD4-7CCB4D7FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BA295-2593-8540-8116-FAD036E99159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>Direction</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>specific payment changes</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Eng/pay user acc</t>
+  </si>
+  <si>
+    <t>Trouble Makers</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +342,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +644,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -618,7 +660,9 @@
     <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" style="13" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="13" max="15" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
@@ -1410,8 +1454,10 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1486,6 +1532,10 @@
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:58" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1554,62 +1604,98 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="18">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
         <v>45961</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="24">
         <v>45475</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:58" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>897660792</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="18">
+        <v>45961</v>
+      </c>
+      <c r="J16" s="9">
+        <v>45501</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1787647669</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="18">
+        <v>45961</v>
+      </c>
+      <c r="J17" s="9">
+        <v>45501</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="3"/>
     </row>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BA295-2593-8540-8116-FAD036E99159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DBB0C-7B85-D940-A693-AC7B15831CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>Direction</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Trouble Makers</t>
+  </si>
+  <si>
+    <t>10.43.0.250</t>
+  </si>
+  <si>
+    <t>192,168,1,250:8089</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1667,7 +1673,9 @@
       <c r="K16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1688,7 +1696,9 @@
       <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="18">
         <v>45961</v>
@@ -1697,7 +1707,9 @@
         <v>45501</v>
       </c>
       <c r="K17" s="11"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\LGCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DBB0C-7B85-D940-A693-AC7B15831CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>Direction</t>
   </si>
@@ -202,12 +201,15 @@
   </si>
   <si>
     <t>192,168,1,250:8089</t>
+  </si>
+  <si>
+    <t>In Salah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,32 +648,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="13" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -755,7 +757,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -833,7 +835,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -908,7 +910,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -985,7 +987,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1065,7 +1067,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1149,7 +1151,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1230,7 +1232,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1312,7 +1314,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1507,7 +1509,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1577,7 +1579,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -1641,7 +1643,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:58" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1711,21 +1713,39 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3">
+        <v>401804188</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="18">
+        <v>45961</v>
+      </c>
+      <c r="J18" s="9">
+        <v>45501</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1739,7 +1759,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1753,7 +1773,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1767,7 +1787,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1781,7 +1801,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1795,7 +1815,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1809,7 +1829,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1823,7 +1843,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1837,7 +1857,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1851,7 +1871,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1872,32 +1892,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +2001,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2067,7 +2087,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H3" s="4"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2116,7 +2136,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2165,7 +2185,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2214,7 +2234,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="4"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2263,7 +2283,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2277,7 +2297,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2326,7 +2346,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2375,7 +2395,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2389,7 +2409,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2403,7 +2423,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2417,7 +2437,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2431,7 +2451,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2445,7 +2465,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2459,7 +2479,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2473,7 +2493,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2494,24 +2514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645D91C-5358-9D44-A618-C9DA942F1443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>234009317</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1361,10 +1361,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="3">
-        <v>1590730343</v>
+        <v>1085627854</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1378,7 +1378,9 @@
       <c r="I10" s="9">
         <v>45596</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9">
+        <v>45501</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="3" t="s">
         <v>30</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>Direction</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>In Salah</t>
+  </si>
+  <si>
+    <t>lots of crap</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1708,9 +1711,11 @@
         <v>45961</v>
       </c>
       <c r="J17" s="9">
-        <v>45501</v>
-      </c>
-      <c r="K17" s="11"/>
+        <v>45540</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="L17" s="3" t="s">
         <v>56</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>Direction</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>lots of crap</t>
+  </si>
+  <si>
+    <t>Culture</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1007,7 @@
         <v>234009317</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1753,15 +1756,31 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1308628651</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="18">
+        <v>45961</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="11"/>
       <c r="L19" s="3"/>
@@ -1902,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>Direction</t>
   </si>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF28"/>
+  <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
       <c r="BF1" s="1"/>
     </row>
     <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="5">
-        <v>150571500</v>
+        <v>1846651015</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>19</v>
@@ -841,34 +841,37 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1139732168</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>150571500</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9">
-        <v>45596</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -916,31 +919,29 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>1495102636</v>
+        <v>1139732168</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="9">
         <v>45596</v>
       </c>
@@ -995,16 +996,16 @@
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>234009317</v>
+        <v>1495102636</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1023,9 +1024,6 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1074,40 +1072,36 @@
       <c r="BF5" s="1"/>
     </row>
     <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1073231461</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>234009317</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="9">
         <v>45596</v>
       </c>
-      <c r="J6" s="16">
-        <v>45417</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="1"/>
@@ -1158,38 +1152,41 @@
       <c r="BF6" s="1"/>
     </row>
     <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
-        <v>1700115743</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="14">
+        <v>1073231461</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="16">
         <v>45596</v>
       </c>
-      <c r="J7" s="9">
-        <v>45428</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>39</v>
+      <c r="J7" s="16">
+        <v>45417</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1238,21 +1235,21 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1700115743</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1282234526</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -1260,18 +1257,17 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="9">
         <v>45596</v>
       </c>
       <c r="J8" s="9">
-        <v>45466</v>
+        <v>45428</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1320,18 +1316,18 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>1196674438</v>
+        <v>1282234526</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -1342,7 +1338,7 @@
       <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="9">
         <v>45596</v>
       </c>
@@ -1353,24 +1349,70 @@
         <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>1085627854</v>
+        <v>1196674438</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1378,78 +1420,32 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="9">
         <v>45596</v>
       </c>
       <c r="J10" s="9">
-        <v>45501</v>
-      </c>
-      <c r="K10" s="10"/>
+        <v>45466</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-    </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
-        <v>1344147740</v>
+        <v>1085627854</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1460,20 +1456,23 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="9">
         <v>45596</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <v>45501</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1517,18 +1516,18 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>1565013331</v>
+        <v>1344147740</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1539,7 +1538,6 @@
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="9">
         <v>45596</v>
       </c>
@@ -1548,23 +1546,67 @@
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>1941782289</v>
+        <v>1565013331</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1575,30 +1617,32 @@
       <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="9">
         <v>45596</v>
       </c>
-      <c r="J13" s="9">
-        <v>45481</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3">
-        <v>1829370083</v>
+        <v>1941782289</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1610,95 +1654,93 @@
         <v>19</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="18">
+      <c r="I14" s="9">
+        <v>45596</v>
+      </c>
+      <c r="J14" s="9">
+        <v>45481</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1829370083</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="18">
         <v>45961</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <v>45475</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="K15" s="11"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23">
+      <c r="H16" s="22"/>
+      <c r="I16" s="23">
         <v>45961</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J16" s="24">
         <v>45475</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3">
-        <v>897660792</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="18">
-        <v>45961</v>
-      </c>
-      <c r="J16" s="9">
-        <v>45501</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3">
-        <v>1787647669</v>
+        <v>897660792</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
@@ -1714,30 +1756,30 @@
         <v>45961</v>
       </c>
       <c r="J17" s="9">
-        <v>45540</v>
+        <v>45501</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3">
-        <v>401804188</v>
+        <v>1787647669</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
@@ -1750,23 +1792,27 @@
         <v>45961</v>
       </c>
       <c r="J18" s="9">
-        <v>45501</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="3"/>
+        <v>45540</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3">
-        <v>1308628651</v>
+        <v>401804188</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1781,20 +1827,38 @@
       <c r="I19" s="18">
         <v>45961</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="9">
+        <v>45501</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1308628651</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="18">
+        <v>45961</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="11"/>
       <c r="L20" s="3"/>
@@ -1910,6 +1974,20 @@
       <c r="J28" s="3"/>
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$29</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="61">
   <si>
     <t>Direction</t>
   </si>
@@ -137,9 +140,6 @@
     <t>45,1,16,189:8089</t>
   </si>
   <si>
-    <t>specific changes</t>
-  </si>
-  <si>
     <t>172,168,1,5</t>
   </si>
   <si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Culture</t>
+  </si>
+  <si>
+    <t>fiche payement</t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -764,7 +767,7 @@
       <c r="BF1" s="1"/>
     </row>
     <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1180,10 +1183,10 @@
         <v>45596</v>
       </c>
       <c r="J7" s="16">
-        <v>45417</v>
+        <v>45557</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>30</v>
@@ -1267,7 +1270,7 @@
         <v>45428</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1346,7 +1349,7 @@
         <v>45466</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -1428,7 +1431,7 @@
         <v>45466</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -1550,7 +1553,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="20"/>
       <c r="P12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
@@ -1661,7 +1664,7 @@
         <v>45481</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1673,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3">
         <v>1829370083</v>
@@ -1702,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>9</v>
@@ -1737,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>897660792</v>
@@ -1759,10 +1762,10 @@
         <v>45501</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1773,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3">
         <v>1787647669</v>
@@ -1795,10 +1798,10 @@
         <v>45540</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1809,7 +1812,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3">
         <v>401804188</v>
@@ -1838,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1859,8 +1862,12 @@
       <c r="I20" s="18">
         <v>45961</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="11"/>
+      <c r="J20" s="9">
+        <v>45557</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1990,6 +1997,7 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2113,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>
@@ -2135,16 +2143,16 @@
         <v>45492</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2678,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -2701,10 +2709,10 @@
         <v>45487</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
   <si>
     <t>Direction</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>numberWithcommas</t>
-  </si>
-  <si>
     <t>Medea</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>101 126 800</t>
-  </si>
-  <si>
-    <t>attestation payment</t>
   </si>
   <si>
     <t>4514+4514Aa</t>
@@ -658,10 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -766,7 +761,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -844,7 +839,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -922,7 +917,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -997,7 +992,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1074,7 +1069,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>45557</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>30</v>
@@ -1238,7 +1233,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1266,12 +1261,8 @@
       <c r="I8" s="9">
         <v>45596</v>
       </c>
-      <c r="J8" s="9">
-        <v>45428</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1319,7 +1310,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>45466</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -1401,7 +1392,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1431,13 +1422,13 @@
         <v>45466</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1519,7 +1510,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1553,7 +1544,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="20"/>
       <c r="P12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1631,10 +1622,10 @@
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" ht="37.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1661,14 +1652,14 @@
         <v>45596</v>
       </c>
       <c r="J14" s="9">
-        <v>45481</v>
+        <v>45557</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1676,7 +1667,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3">
         <v>1829370083</v>
@@ -1700,18 +1691,18 @@
       <c r="K15" s="11"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>9</v>
@@ -1732,7 +1723,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1740,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3">
         <v>897660792</v>
@@ -1762,13 +1753,13 @@
         <v>45501</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1776,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
         <v>1787647669</v>
@@ -1798,13 +1789,13 @@
         <v>45540</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1812,7 +1803,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3">
         <v>401804188</v>
@@ -1841,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1866,11 +1857,11 @@
         <v>45557</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1884,7 +1875,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1898,7 +1889,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1912,7 +1903,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1926,7 +1917,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1940,7 +1931,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1954,7 +1945,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1968,7 +1959,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1982,7 +1973,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1997,7 +1988,13 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C29"/>
+  <autoFilter ref="C1:C29">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ouled Djellal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2121,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>
@@ -2143,7 +2140,7 @@
         <v>45492</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>36</v>
@@ -2152,7 +2149,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -2709,10 +2706,10 @@
         <v>45487</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
   <si>
     <t>Direction</t>
   </si>
@@ -656,7 +656,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1261,8 +1261,12 @@
       <c r="I8" s="9">
         <v>45596</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="9">
+        <v>45557</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1615,8 +1619,12 @@
       <c r="I13" s="9">
         <v>45596</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="9">
+        <v>45557</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>30</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>Direction</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">DUAC </t>
-  </si>
-  <si>
-    <t>update code</t>
   </si>
   <si>
     <t>- update errors
@@ -149,9 +146,6 @@
     <t>Medea</t>
   </si>
   <si>
-    <t>insc</t>
-  </si>
-  <si>
     <t>Touggourt</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Mila</t>
   </si>
   <si>
-    <t>Eng/pay user acc</t>
-  </si>
-  <si>
     <t>Trouble Makers</t>
   </si>
   <si>
@@ -200,13 +191,13 @@
     <t>In Salah</t>
   </si>
   <si>
-    <t>lots of crap</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
     <t>fiche payement</t>
+  </si>
+  <si>
+    <t>Mandat</t>
   </si>
 </sst>
 </file>
@@ -295,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,9 +359,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +644,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -703,16 +691,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -784,13 +772,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="12"/>
       <c r="L2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -862,13 +850,13 @@
         <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="12"/>
       <c r="L3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1015,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="9">
         <v>45596</v>
@@ -1092,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="9">
         <v>45596</v>
@@ -1100,7 +1088,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1172,7 +1160,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="16">
         <v>45596</v>
@@ -1181,10 +1169,10 @@
         <v>45557</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1247,7 +1235,7 @@
         <v>1700115743</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -1255,17 +1243,15 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="9">
         <v>45596</v>
       </c>
       <c r="J8" s="9">
-        <v>45557</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>58</v>
+        <v>45567</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1340,14 +1326,11 @@
       <c r="I9" s="9">
         <v>45596</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <v>45466</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1422,14 +1405,11 @@
       <c r="I10" s="9">
         <v>45596</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="9">
         <v>45466</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1437,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>1085627854</v>
@@ -1455,17 +1435,16 @@
         <v>19</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9">
         <v>45596</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <v>45501</v>
       </c>
-      <c r="K11" s="10"/>
       <c r="L11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1519,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -1539,16 +1518,15 @@
       <c r="I12" s="9">
         <v>45596</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="20"/>
       <c r="P12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1620,17 +1598,17 @@
         <v>45596</v>
       </c>
       <c r="J13" s="9">
-        <v>45557</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>58</v>
+        <v>45567</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
@@ -1638,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1660,10 +1638,10 @@
         <v>45596</v>
       </c>
       <c r="J14" s="9">
-        <v>45557</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>58</v>
+        <v>45567</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1672,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
         <v>1829370083</v>
@@ -1693,10 +1671,9 @@
       <c r="I15" s="18">
         <v>45961</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="9">
         <v>45475</v>
       </c>
-      <c r="K15" s="11"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
@@ -1704,13 +1681,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>9</v>
@@ -1725,10 +1702,9 @@
       <c r="I16" s="23">
         <v>45961</v>
       </c>
-      <c r="J16" s="24">
+      <c r="K16" s="24">
         <v>45475</v>
       </c>
-      <c r="K16" s="25"/>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1739,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
         <v>897660792</v>
@@ -1757,14 +1733,11 @@
       <c r="I17" s="18">
         <v>45961</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K17" s="9">
         <v>45501</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>1787647669</v>
@@ -1793,14 +1766,11 @@
       <c r="I18" s="18">
         <v>45961</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="9">
         <v>45540</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1808,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>401804188</v>
@@ -1829,10 +1799,9 @@
       <c r="I19" s="18">
         <v>45961</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <v>45501</v>
       </c>
-      <c r="K19" s="11"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1840,7 +1809,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1862,10 +1831,10 @@
         <v>45961</v>
       </c>
       <c r="J20" s="9">
-        <v>45557</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>58</v>
+        <v>45567</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -2060,16 +2029,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2126,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>1967046649</v>
@@ -2148,16 +2117,16 @@
         <v>45492</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2674,16 +2643,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2691,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -2714,10 +2683,10 @@
         <v>45487</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -640,11 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -659,7 +658,7 @@
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
     <col min="13" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
@@ -749,7 +748,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -827,7 +826,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -905,7 +904,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -980,7 +979,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1300,7 +1299,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1379,7 +1378,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1493,7 +1492,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1645,7 +1644,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1676,7 +1675,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -1707,7 +1706,7 @@
       </c>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="3">
-        <v>1787647669</v>
+        <v>847340761</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -1773,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1838,7 +1837,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1852,7 +1851,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1866,7 +1865,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1880,7 +1879,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1894,7 +1893,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1908,7 +1907,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1922,7 +1921,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1936,7 +1935,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1950,7 +1949,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1965,13 +1964,7 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C29">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ouled Djellal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1670,7 @@
       <c r="I15" s="18">
         <v>45961</v>
       </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="9">
         <v>45475</v>
       </c>
@@ -1701,6 +1702,7 @@
       <c r="I16" s="23">
         <v>45961</v>
       </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="24">
         <v>45475</v>
       </c>
@@ -1732,6 +1734,7 @@
       <c r="I17" s="18">
         <v>45961</v>
       </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="9">
         <v>45501</v>
       </c>
@@ -1765,6 +1768,7 @@
       <c r="I18" s="18">
         <v>45961</v>
       </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="9">
         <v>45540</v>
       </c>
@@ -1798,6 +1802,7 @@
       <c r="I19" s="18">
         <v>45961</v>
       </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="9">
         <v>45501</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +366,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1172,8 @@
       <c r="H7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="16">
-        <v>45596</v>
+      <c r="I7" s="25">
+        <v>45961</v>
       </c>
       <c r="J7" s="16">
         <v>45557</v>
@@ -1243,8 +1254,8 @@
         <v>19</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="9">
-        <v>45596</v>
+      <c r="I8" s="25">
+        <v>45961</v>
       </c>
       <c r="J8" s="9">
         <v>45567</v>
@@ -1322,8 +1333,8 @@
         <v>19</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <v>45596</v>
+      <c r="I9" s="25">
+        <v>45961</v>
       </c>
       <c r="K9" s="9">
         <v>45466</v>
@@ -1436,8 +1447,8 @@
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="9">
-        <v>45596</v>
+      <c r="I11" s="25">
+        <v>45961</v>
       </c>
       <c r="K11" s="9">
         <v>45501</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\LGCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE120934-2FE0-864D-99C8-950CD672BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,32 +651,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -837,7 +838,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1147,7 +1148,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1231,7 +1232,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1310,7 +1311,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1389,7 +1390,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1503,7 +1504,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1644,8 +1645,8 @@
         <v>19</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="9">
-        <v>45596</v>
+      <c r="I14" s="25">
+        <v>45961</v>
       </c>
       <c r="J14" s="9">
         <v>45567</v>
@@ -1655,7 +1656,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1687,7 +1688,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1819,7 +1820,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1867,7 +1868,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1881,7 +1882,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1895,7 +1896,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1909,7 +1910,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1923,7 +1924,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1937,7 +1938,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1951,7 +1952,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1965,7 +1966,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1980,39 +1981,39 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C29"/>
+  <autoFilter ref="C1:C29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2097,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2182,7 +2183,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H3" s="4"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2231,7 +2232,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2280,7 +2281,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2329,7 +2330,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="4"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2378,7 +2379,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2392,7 +2393,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2441,7 +2442,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2490,7 +2491,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2504,7 +2505,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2518,7 +2519,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2532,7 +2533,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2546,7 +2547,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2560,7 +2561,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2574,7 +2575,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2588,7 +2589,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2609,24 +2610,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="19">
-        <v>1058922238</v>
+        <v>1151538820</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LGCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\LGCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE120934-2FE0-864D-99C8-950CD672BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,32 +650,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -760,7 +759,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -838,7 +837,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -916,7 +915,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -991,7 +990,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1068,7 +1067,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1148,7 +1147,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1232,7 +1231,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1311,7 +1310,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1390,7 +1389,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1413,8 +1412,8 @@
         <v>19</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="9">
-        <v>45596</v>
+      <c r="I10" s="25">
+        <v>45961</v>
       </c>
       <c r="K10" s="9">
         <v>45466</v>
@@ -1423,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1504,7 +1503,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1582,7 +1581,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1688,7 +1687,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -1720,7 +1719,7 @@
       </c>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1820,7 +1819,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1854,7 +1853,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1868,7 +1867,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1882,7 +1881,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1896,7 +1895,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1910,7 +1909,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1924,7 +1923,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1938,7 +1937,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1952,7 +1951,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1966,7 +1965,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1981,39 +1980,39 @@
       <c r="L29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2097,7 +2096,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2183,7 +2182,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H3" s="4"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2232,7 +2231,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2281,7 +2280,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2330,7 +2329,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="4"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2379,7 +2378,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2393,7 +2392,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2442,7 +2441,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2491,7 +2490,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2505,7 +2504,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2519,7 +2518,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2533,7 +2532,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2547,7 +2546,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2561,7 +2560,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2575,7 +2574,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2589,7 +2588,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2610,24 +2609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1525,8 +1525,8 @@
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9">
-        <v>45596</v>
+      <c r="I12" s="25">
+        <v>45961</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="3" t="s">

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1092,8 +1092,8 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9">
-        <v>45596</v>
+      <c r="I6" s="25">
+        <v>45961</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
@@ -1525,8 +1525,8 @@
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9">
-        <v>45596</v>
+      <c r="I12" s="25">
+        <v>45961</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="3" t="s">

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="15360" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1604,8 @@
         <v>19</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="9">
-        <v>45596</v>
+      <c r="I13" s="25">
+        <v>45961</v>
       </c>
       <c r="J13" s="9">
         <v>45567</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -654,7 +654,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1092,8 +1092,8 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9">
-        <v>45596</v>
+      <c r="I6" s="25">
+        <v>45961</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
   <si>
     <t>Direction</t>
   </si>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1604,8 @@
         <v>19</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="9">
-        <v>45596</v>
+      <c r="I13" s="25">
+        <v>45961</v>
       </c>
       <c r="J13" s="9">
         <v>45567</v>
@@ -1854,18 +1854,36 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1584094343</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="18">
+        <v>45961</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
+    <sheet name="Money 2024" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$29</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="60">
   <si>
     <t>Direction</t>
   </si>
@@ -198,13 +199,28 @@
   </si>
   <si>
     <t>Mandat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdelkader </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total finale</t>
+  </si>
+  <si>
+    <t>In guezam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ _€"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +246,14 @@
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,6 +394,21 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1886,15 +1925,29 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1356948900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="18">
+        <v>45961</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
@@ -2631,7 +2684,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,4 +2772,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29">
+        <f>SUM(D1:D14)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29">
+        <f>D16-D18</f>
+        <v>590000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1769,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>897660792</v>
+        <v>996839565</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
   <si>
     <t>Direction</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>In guezam</t>
+  </si>
+  <si>
+    <t>CDARS</t>
   </si>
 </sst>
 </file>
@@ -692,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1946,9 @@
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="18">
         <v>45961</v>
@@ -1953,18 +1958,36 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1529109099</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="18">
+        <v>45961</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2684,7 +2707,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2802,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1772,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>996839565</v>
+        <v>1323016193</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="62">
   <si>
     <t>Direction</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>CDARS</t>
+  </si>
+  <si>
+    <t>in guezzam</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1990,15 +1993,31 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1640258972</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="18">
+        <v>45961</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
   <si>
     <t>Direction</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>in guezzam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL </t>
+  </si>
+  <si>
+    <t>31/11/2025</t>
   </si>
 </sst>
 </file>
@@ -698,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2023,15 +2029,31 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3">
+        <v>954237605</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>Direction</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>31/11/2025</t>
+  </si>
+  <si>
+    <t>port 8090 for phpmyadmin</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1947,10 +1950,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="3">
-        <v>1356948900</v>
+        <v>1640258972</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -2125,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2147,8 @@
     <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2272,7 +2276,9 @@
       <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
   <si>
     <t>Direction</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>port 8090 for phpmyadmin</t>
+  </si>
+  <si>
+    <t>7,7,7,250</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2062,18 +2065,36 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1020779010</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="65">
   <si>
     <t>Direction</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">DAL </t>
-  </si>
-  <si>
-    <t>31/11/2025</t>
   </si>
   <si>
     <t>port 8090 for phpmyadmin</t>
@@ -710,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2057,8 +2054,8 @@
         <v>19</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="18" t="s">
-        <v>63</v>
+      <c r="I25" s="18">
+        <v>45961</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="11"/>
@@ -2087,13 +2084,13 @@
         <v>19</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="18" t="s">
-        <v>63</v>
+      <c r="I26" s="18">
+        <v>45961</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="11"/>
       <c r="L26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2298,7 +2295,7 @@
         <v>42</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="66">
   <si>
     <t>Direction</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>7,7,7,250</t>
+  </si>
+  <si>
+    <t>El Oued</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2094,29 +2097,63 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1772418636</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="9">
+        <v>46326</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3">
+        <v>947448168</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="9">
+        <v>46326</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="67">
   <si>
     <t>Direction</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>El Oued</t>
+  </si>
+  <si>
+    <t>DSA</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2159,9 +2162,15 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="67">
   <si>
     <t>Direction</t>
   </si>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2171,12 +2171,22 @@
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="3">
+        <v>1062632200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="9">
+        <v>46326</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="11"/>
       <c r="L29" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="69">
   <si>
     <t>Direction</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>DSA</t>
+  </si>
+  <si>
+    <t>DJS</t>
+  </si>
+  <si>
+    <t>Illizi</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF29"/>
+  <dimension ref="A1:BF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2191,6 +2197,36 @@
       <c r="K29" s="11"/>
       <c r="L29" s="3"/>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1124288609</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="69">
   <si>
     <t>Direction</t>
   </si>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ _€"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +281,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF30"/>
+  <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1510,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>1085627854</v>
+        <v>1198616846</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1513,8 +1524,8 @@
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="25">
-        <v>45961</v>
+      <c r="I11" s="31">
+        <v>46326</v>
       </c>
       <c r="K11" s="9">
         <v>45501</v>
@@ -2226,6 +2237,24 @@
       <c r="J30" s="3"/>
       <c r="K30" s="11"/>
       <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C29"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -442,11 +442,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>46326</v>
       </c>
       <c r="K11" s="9">
@@ -3167,32 +3167,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="29">
         <f>SUM(D1:D14)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="29">
         <f>D16-D18</f>
         <v>590000</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="70">
   <si>
     <t>Direction</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Illizi</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2239,19 +2242,31 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="3">
+        <v>1702248669</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="9">
+        <v>46326</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="11"/>
       <c r="L31" s="3"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1684,8 +1684,8 @@
         <v>19</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="25">
-        <v>45961</v>
+      <c r="I13" s="30">
+        <v>46326</v>
       </c>
       <c r="J13" s="9">
         <v>45567</v>
@@ -1922,8 +1922,8 @@
         <v>19</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="18">
-        <v>45961</v>
+      <c r="I20" s="30">
+        <v>46326</v>
       </c>
       <c r="J20" s="9">
         <v>45567</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -1252,8 +1255,8 @@
       <c r="H7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="25">
-        <v>45961</v>
+      <c r="I7" s="30">
+        <v>46326</v>
       </c>
       <c r="J7" s="16">
         <v>45557</v>
@@ -1822,8 +1825,8 @@
         <v>19</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="18">
-        <v>45961</v>
+      <c r="I17" s="32">
+        <v>46326</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="9">
@@ -1922,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="30">
+      <c r="I20" s="32">
         <v>46326</v>
       </c>
       <c r="J20" s="9">
@@ -2080,8 +2083,8 @@
         <v>19</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="18">
-        <v>45961</v>
+      <c r="I25" s="32">
+        <v>46326</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="11"/>
@@ -2286,7 +2289,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2911,7 +2914,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3006,7 +3009,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -448,11 +448,11 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -1175,8 +1175,8 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="25">
-        <v>45961</v>
+      <c r="I6" s="30">
+        <v>46326</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
@@ -1337,8 +1337,8 @@
         <v>19</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="25">
-        <v>45961</v>
+      <c r="I8" s="30">
+        <v>46326</v>
       </c>
       <c r="J8" s="9">
         <v>45567</v>
@@ -1416,8 +1416,8 @@
         <v>19</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="25">
-        <v>45961</v>
+      <c r="I9" s="30">
+        <v>46326</v>
       </c>
       <c r="K9" s="9">
         <v>45466</v>
@@ -1825,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>46326</v>
       </c>
       <c r="J17" s="3"/>
@@ -1859,8 +1859,8 @@
         <v>19</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="18">
-        <v>45961</v>
+      <c r="I18" s="31">
+        <v>46326</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="9">
@@ -1925,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <v>46326</v>
       </c>
       <c r="J20" s="9">
@@ -2021,8 +2021,8 @@
         <v>19</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="18">
-        <v>45961</v>
+      <c r="I23" s="31">
+        <v>46326</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="11"/>
@@ -2083,7 +2083,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>46326</v>
       </c>
       <c r="J25" s="3"/>
@@ -2289,7 +2289,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2914,7 +2914,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3009,7 +3009,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3185,32 +3185,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="29">
         <f>SUM(D1:D14)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="29">
         <f>D16-D18</f>
         <v>590000</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -736,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -1761,8 +1761,8 @@
         <v>19</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="18">
-        <v>45961</v>
+      <c r="I15" s="31">
+        <v>46326</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="9">
@@ -2289,7 +2289,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2914,7 +2914,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3009,7 +3009,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
   <si>
     <t>Direction</t>
   </si>
@@ -734,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF31"/>
+  <dimension ref="A1:BF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2274,6 +2274,36 @@
       <c r="K31" s="11"/>
       <c r="L31" s="3"/>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1727048670</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,7 +2319,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2914,7 +2944,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3009,7 +3039,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Money 2024" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
   <si>
     <t>Direction</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>server</t>
+  </si>
+  <si>
+    <t>DSP</t>
   </si>
 </sst>
 </file>
@@ -734,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF32"/>
+  <dimension ref="A1:BF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2304,8 +2307,38 @@
       <c r="K32" s="11"/>
       <c r="L32" s="3"/>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1516338908</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C29"/>
+  <autoFilter ref="C1:C32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2319,7 +2352,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2944,7 +2977,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3039,7 +3072,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
     <sheet name="Money 2024" sheetId="5" r:id="rId4"/>
+    <sheet name="Money 2025" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$32</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
   <si>
     <t>Direction</t>
   </si>
@@ -300,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,6 +463,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2973,7 +2995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
@@ -3288,4 +3310,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="35">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>9</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34">
+        <f>SUM(D1:D18)</f>
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="29">
+        <f>SUM(D1:D35)</f>
+        <v>1210000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="29">
+        <f>D37-D39</f>
+        <v>1200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="72">
   <si>
     <t>Direction</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>DSP</t>
+  </si>
+  <si>
+    <t>EL Tarf</t>
   </si>
 </sst>
 </file>
@@ -461,9 +464,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,6 +478,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF33"/>
+  <dimension ref="A1:BF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2359,6 +2362,36 @@
       <c r="K33" s="11"/>
       <c r="L33" s="3"/>
     </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1544086645</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,7 +2407,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2999,7 +3032,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3094,7 +3127,7 @@
       <selection activeCell="I8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3270,32 +3303,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="29">
         <f>SUM(D1:D14)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="29">
         <f>D16-D18</f>
         <v>590000</v>
@@ -3316,11 +3349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3435,21 +3468,21 @@
       <c r="C8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>9</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>50000</v>
       </c>
     </row>
@@ -3580,91 +3613,91 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33">
         <f>SUM(D1:D18)</f>
         <v>580000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -3681,32 +3714,32 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="29">
         <f>SUM(D1:D35)</f>
         <v>1210000</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="29">
         <f>D37-D39</f>
         <v>1200000</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="72">
   <si>
     <t>Direction</t>
   </si>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:L34"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1987,8 +1987,8 @@
         <v>19</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="18">
-        <v>45961</v>
+      <c r="I21" s="31">
+        <v>46326</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="11"/>
@@ -3029,7 +3029,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="19">
-        <v>1151538820</v>
+        <v>1198740408</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -3116,6 +3116,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3347,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,54 +3450,54 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D8" s="26">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>8</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D9" s="34">
         <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>9</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="36">
-        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="B10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="36">
         <v>50000</v>
       </c>
     </row>
@@ -3505,10 +3506,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="26">
         <v>50000</v>
@@ -3519,10 +3520,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D12" s="26">
         <v>50000</v>
@@ -3533,10 +3534,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D13" s="26">
         <v>50000</v>
@@ -3547,10 +3548,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D14" s="26">
         <v>50000</v>
@@ -3561,10 +3562,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D15" s="26">
         <v>50000</v>
@@ -3575,10 +3576,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D16" s="26">
         <v>50000</v>
@@ -3589,10 +3590,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D17" s="26">
         <v>50000</v>
@@ -3603,29 +3604,37 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D19" s="26">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33">
-        <f>SUM(D1:D18)</f>
-        <v>580000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="33">
+        <f>SUM(D1:D19)</f>
+        <v>590000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -3699,57 +3708,63 @@
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D36" s="27">
         <v>50000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="29">
-        <f>SUM(D1:D35)</f>
-        <v>1210000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="29">
+        <f>SUM(D1:D36)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="27">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="27">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="29">
-        <f>D37-D39</f>
-        <v>1200000</v>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="29">
+        <f>D38-D40</f>
+        <v>1220000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="21600" windowHeight="9240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="72">
   <si>
     <t>Direction</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Tamenrasset</t>
   </si>
   <si>
-    <t>101 126 800</t>
-  </si>
-  <si>
     <t>4514+4514Aa</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>EL Tarf</t>
+  </si>
+  <si>
+    <t>Ouargla (Gestion de Parc)</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ _€"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,13 @@
       <b/>
       <sz val="14"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,6 +488,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF34"/>
+  <dimension ref="A1:BF35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1312,7 @@
         <v>45557</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>29</v>
@@ -1372,7 +1394,7 @@
         <v>45567</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1523,8 +1545,8 @@
         <v>19</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="25">
-        <v>45961</v>
+      <c r="I10" s="30">
+        <v>46326</v>
       </c>
       <c r="K10" s="9">
         <v>45466</v>
@@ -1647,7 +1669,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="20"/>
       <c r="P12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1722,14 +1744,14 @@
         <v>45567</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
@@ -1762,7 +1784,7 @@
         <v>45567</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1808,8 +1830,8 @@
       <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>41</v>
+      <c r="D16" s="21">
+        <v>697107020</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>9</v>
@@ -1830,7 +1852,7 @@
       </c>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1861,10 +1883,10 @@
         <v>45501</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1872,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3">
         <v>847340761</v>
@@ -1895,10 +1917,10 @@
         <v>45540</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1906,7 +1928,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3">
         <v>401804188</v>
@@ -1930,12 +1952,12 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1960,11 +1982,11 @@
         <v>45567</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>1584094343</v>
@@ -1996,7 +2018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3">
         <v>1640258972</v>
@@ -2026,12 +2048,12 @@
       <c r="K22" s="11"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
@@ -2058,7 +2080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2066,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3">
         <v>1640258972</v>
@@ -2088,12 +2110,12 @@
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -2118,7 +2140,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2147,10 +2169,10 @@
       <c r="J26" s="3"/>
       <c r="K26" s="11"/>
       <c r="L26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
         <v>1772418636</v>
@@ -2181,16 +2203,19 @@
       <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3">
         <v>947448168</v>
@@ -2212,12 +2237,12 @@
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -2242,15 +2267,15 @@
       <c r="K29" s="11"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D30" s="3">
         <v>1124288609</v>
@@ -2272,7 +2297,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2286,7 +2311,7 @@
         <v>1702248669</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -2302,7 +2327,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2337,7 +2362,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -2370,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3">
         <v>1544086645</v>
@@ -2391,6 +2416,36 @@
       <c r="J34" s="3"/>
       <c r="K34" s="11"/>
       <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1337085332</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C32"/>
@@ -2540,7 +2595,7 @@
         <v>45492</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>35</v>
@@ -2549,10 +2604,10 @@
         <v>36</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -3085,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -3108,10 +3163,10 @@
         <v>45487</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3180,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="G8:I8"/>
+      <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -3305,7 +3360,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -3316,7 +3371,7 @@
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -3326,7 +3381,7 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -3348,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,31 +3417,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="41">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26">
-        <v>10000</v>
+      <c r="D1" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="41">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="26">
-        <v>10000</v>
+      <c r="C2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3394,10 +3449,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="26">
         <v>10000</v>
@@ -3408,10 +3463,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="26">
         <v>10000</v>
@@ -3422,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D5" s="26">
         <v>10000</v>
@@ -3436,10 +3491,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="26">
         <v>10000</v>
@@ -3450,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="26">
         <v>10000</v>
@@ -3467,52 +3522,52 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D8" s="26">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="39">
         <v>9</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="34">
-        <v>20000</v>
+      <c r="B9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="36">
-        <v>50000</v>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26">
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="39">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="26">
-        <v>50000</v>
+      <c r="B11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3520,10 +3575,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="26">
         <v>50000</v>
@@ -3533,28 +3588,28 @@
       <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="26">
-        <v>50000</v>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34">
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="26">
-        <v>50000</v>
+      <c r="B14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="36">
+        <v>70000</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3562,10 +3617,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D15" s="26">
         <v>50000</v>
@@ -3576,10 +3631,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D16" s="26">
         <v>50000</v>
@@ -3590,10 +3645,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D17" s="26">
         <v>50000</v>
@@ -3604,10 +3659,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D18" s="26">
         <v>50000</v>
@@ -3618,47 +3673,79 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D23" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33">
-        <f>SUM(D1:D19)</f>
-        <v>590000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="33">
+        <f>SUM(D3:D23)</f>
+        <v>610000</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
@@ -3666,23 +3753,30 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="27">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="29">
+        <f>D26+D24</f>
+        <v>720000</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
@@ -3714,57 +3808,82 @@
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
     </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+    </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D40" s="27">
         <v>50000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="29">
-        <f>SUM(D1:D36)</f>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="27">
-        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="29">
-        <f>D38-D40</f>
-        <v>1220000</v>
+        <f>SUM(D3:D40)</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="29">
+        <f>D42-D44</f>
+        <v>2090000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
+  <mergeCells count="4">
     <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,8 @@
     <t>EL Tarf</t>
   </si>
   <si>
-    <t>Ouargla (Gestion de Parc)</t>
+    <t>Ouargla
+ (Gestion de Parc)</t>
   </si>
 </sst>
 </file>
@@ -257,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ _€"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,13 +300,6 @@
       <b/>
       <sz val="14"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,23 +480,23 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2023,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="3">
-        <v>1640258972</v>
+        <v>1195041370</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -2103,8 +2097,8 @@
         <v>19</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="18">
-        <v>45961</v>
+      <c r="I24" s="31">
+        <v>46326</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="11"/>
@@ -3359,32 +3353,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="29">
         <f>SUM(D1:D14)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="29">
         <f>D16-D18</f>
         <v>590000</v>
@@ -3405,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,30 +3411,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
+      <c r="A1" s="39">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="42">
+      <c r="D1" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="39">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3529,16 +3523,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="37">
         <v>9</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3557,16 +3551,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <v>11</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3728,13 +3722,13 @@
       <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3754,7 @@
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="42" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="27">
@@ -3768,11 +3762,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="29">
         <f>D26+D24</f>
         <v>720000</v>
@@ -3847,32 +3841,32 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="29">
         <f>SUM(D3:D40)</f>
         <v>2100000</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="29">
         <f>D42-D44</f>
         <v>2090000</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -492,11 +492,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,11 +780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2088,7 +2088,7 @@
         <v>1640258972</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
@@ -2456,7 +2456,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -3081,7 +3081,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3177,7 +3177,7 @@
       <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3353,32 +3353,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="29">
         <f>SUM(D1:D14)</f>
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="29">
         <f>D16-D18</f>
         <v>590000</v>
@@ -3403,7 +3403,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3754,7 +3754,7 @@
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="27">
@@ -3762,11 +3762,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="29">
         <f>D26+D24</f>
         <v>720000</v>
@@ -3841,32 +3841,32 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="29">
         <f>SUM(D3:D40)</f>
         <v>2100000</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="29">
         <f>D42-D44</f>
         <v>2090000</v>

--- a/anydesk.xlsx
+++ b/anydesk.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="73">
   <si>
     <t>Direction</t>
   </si>
@@ -249,6 +249,9 @@
   <si>
     <t>Ouargla
  (Gestion de Parc)</t>
+  </si>
+  <si>
+    <t>equipementt3</t>
   </si>
 </sst>
 </file>
@@ -778,13 +781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF35"/>
+  <dimension ref="A1:BF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2441,6 +2444,36 @@
       <c r="K35" s="11"/>
       <c r="L35" s="3"/>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1510404232</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="9">
+        <v>46326</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,7 +2489,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -3081,7 +3114,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -3177,7 +3210,7 @@
       <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3399,11 +3432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -3425,17 +3458,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="28">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40">
-        <v>0</v>
+      <c r="D2" s="26">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3737,8 +3770,8 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33">
-        <f>SUM(D3:D23)</f>
-        <v>610000</v>
+        <f>SUM(D1:D23)</f>
+        <v>620000</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3769,7 +3802,7 @@
       <c r="C28" s="42"/>
       <c r="D28" s="29">
         <f>D26+D24</f>
-        <v>720000</v>
+        <v>730000</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3848,7 +3881,7 @@
       <c r="C42" s="42"/>
       <c r="D42" s="29">
         <f>SUM(D3:D40)</f>
-        <v>2100000</v>
+        <v>2120000</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -3869,7 +3902,7 @@
       <c r="C46" s="42"/>
       <c r="D46" s="29">
         <f>D42-D44</f>
-        <v>2090000</v>
+        <v>2110000</v>
       </c>
     </row>
   </sheetData>
